--- a/output/31391653000172.xlsx
+++ b/output/31391653000172.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -484,9 +489,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,9 +514,10 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -532,9 +539,10 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -556,9 +564,10 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -580,9 +589,10 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -604,9 +614,10 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -628,9 +639,10 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -652,9 +664,10 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -676,9 +689,10 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -700,9 +714,10 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -724,9 +739,10 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -748,9 +764,10 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -772,9 +789,10 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -796,9 +814,10 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -811,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,7 +866,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -871,9 +895,10 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -895,9 +920,10 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -919,9 +945,10 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -943,9 +970,10 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/31391653000172.xlsx
+++ b/output/31391653000172.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,11 +487,7 @@
       <c r="G2" t="n">
         <v>104.94</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -512,11 +508,7 @@
       <c r="G3" t="n">
         <v>237.54</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -537,11 +529,7 @@
       <c r="G4" t="n">
         <v>105.1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -562,11 +550,7 @@
       <c r="G5" t="n">
         <v>128.82</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -587,11 +571,7 @@
       <c r="G6" t="n">
         <v>40</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -612,11 +592,7 @@
       <c r="G7" t="n">
         <v>40</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -637,11 +613,7 @@
       <c r="G8" t="n">
         <v>41.2</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -662,11 +634,7 @@
       <c r="G9" t="n">
         <v>40</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -687,11 +655,7 @@
       <c r="G10" t="n">
         <v>40</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -712,11 +676,7 @@
       <c r="G11" t="n">
         <v>40</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -787,11 +747,7 @@
       <c r="G14" t="n">
         <v>40</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -812,11 +768,7 @@
       <c r="G15" t="n">
         <v>40</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
   </sheetData>
@@ -895,7 +847,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(5389,63) e o relatório(1411587,00)!</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -920,7 +872,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(5389,63) e o relatório(5025131,00)!</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -945,7 +897,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(5389,63) e o relatório(5389627,00)!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -970,7 +922,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(5389,63) e o relatório(194023,00)!</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
